--- a/Code/Results/Cases/Case_8_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.27107966395473</v>
+        <v>24.33215028487935</v>
       </c>
       <c r="C2">
-        <v>18.89845854753885</v>
+        <v>19.24390307457482</v>
       </c>
       <c r="D2">
-        <v>8.412015053143389</v>
+        <v>8.560064490898039</v>
       </c>
       <c r="E2">
-        <v>12.4564783222029</v>
+        <v>12.5918927127734</v>
       </c>
       <c r="F2">
-        <v>22.45058763222856</v>
+        <v>21.94831852098683</v>
       </c>
       <c r="G2">
-        <v>2.088722741623568</v>
+        <v>2.272128277003052</v>
       </c>
       <c r="H2">
-        <v>1.8417961851915</v>
+        <v>1.948490991257295</v>
       </c>
       <c r="I2">
-        <v>2.662843991612209</v>
+        <v>2.801811280745939</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.26618047705186</v>
+        <v>11.80204724601143</v>
       </c>
       <c r="L2">
-        <v>7.332256218031155</v>
+        <v>10.58046738083644</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>6.850093845582812</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.37392098330741</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -472,51 +478,57 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.07753207049899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.59486955452773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.6764598560518</v>
+        <v>22.75162507519296</v>
       </c>
       <c r="C3">
-        <v>17.69206379254777</v>
+        <v>17.95853897865745</v>
       </c>
       <c r="D3">
-        <v>8.005041231568963</v>
+        <v>8.159714001274132</v>
       </c>
       <c r="E3">
-        <v>11.87602251824236</v>
+        <v>12.03284902385455</v>
       </c>
       <c r="F3">
-        <v>21.97992289855698</v>
+        <v>21.47656382988154</v>
       </c>
       <c r="G3">
-        <v>2.093141872722328</v>
+        <v>2.846242634627185</v>
       </c>
       <c r="H3">
-        <v>1.600494600382599</v>
+        <v>1.732294843497006</v>
       </c>
       <c r="I3">
-        <v>2.492462111363284</v>
+        <v>2.662696157479566</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.55699194484736</v>
+        <v>12.06242686940916</v>
       </c>
       <c r="L3">
-        <v>7.117973636610492</v>
+        <v>10.79600580902101</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.062646993636848</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.173377631060489</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -525,51 +537,57 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.00036459720249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.49823949181014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.63756850781833</v>
+        <v>21.721915774975</v>
       </c>
       <c r="C4">
-        <v>16.91310363291723</v>
+        <v>17.12789048772287</v>
       </c>
       <c r="D4">
-        <v>7.745684790080479</v>
+        <v>7.905516968416861</v>
       </c>
       <c r="E4">
-        <v>11.50522596761961</v>
+        <v>11.6765653220194</v>
       </c>
       <c r="F4">
-        <v>21.69607559849704</v>
+        <v>21.1874363061386</v>
       </c>
       <c r="G4">
-        <v>2.095942011503184</v>
+        <v>3.210300219289237</v>
       </c>
       <c r="H4">
-        <v>1.676924124809311</v>
+        <v>1.59461941915475</v>
       </c>
       <c r="I4">
-        <v>2.561922598057531</v>
+        <v>2.575344794035532</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.74091254998362</v>
+        <v>12.22567946547075</v>
       </c>
       <c r="L4">
-        <v>6.982397881284329</v>
+        <v>10.93387824130014</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.212020383561956</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.046660510047483</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -578,51 +596,57 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.96184593758614</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.44363695053175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.19898623179179</v>
+        <v>21.28723263048223</v>
       </c>
       <c r="C5">
-        <v>16.59979158199853</v>
+        <v>16.79218754544643</v>
       </c>
       <c r="D5">
-        <v>7.640223925482452</v>
+        <v>7.802334015922563</v>
       </c>
       <c r="E5">
-        <v>11.35159717501048</v>
+        <v>11.52917373042595</v>
       </c>
       <c r="F5">
-        <v>21.57182359449006</v>
+        <v>21.06014359214461</v>
       </c>
       <c r="G5">
-        <v>2.097110394786868</v>
+        <v>3.36229850604891</v>
       </c>
       <c r="H5">
-        <v>1.742602169282845</v>
+        <v>1.584614688952221</v>
       </c>
       <c r="I5">
-        <v>2.611835107148464</v>
+        <v>2.540293213238376</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.81226893262632</v>
+        <v>12.28838373730673</v>
       </c>
       <c r="L5">
-        <v>6.925855894483955</v>
+        <v>10.9865909845481</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.27552839389313</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.993856404965151</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -631,51 +655,57 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.94081419009255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.41519690616648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.12507712701554</v>
+        <v>21.21397902161232</v>
       </c>
       <c r="C6">
-        <v>16.5639678077197</v>
+        <v>16.7519320487474</v>
       </c>
       <c r="D6">
-        <v>7.625661850702731</v>
+        <v>7.788018296080673</v>
       </c>
       <c r="E6">
-        <v>11.3270840958225</v>
+        <v>11.50567113136679</v>
       </c>
       <c r="F6">
-        <v>21.53909121409209</v>
+        <v>21.02716693585281</v>
       </c>
       <c r="G6">
-        <v>2.097311919094198</v>
+        <v>3.388556597082909</v>
       </c>
       <c r="H6">
-        <v>1.753826802727835</v>
+        <v>1.594687723776164</v>
       </c>
       <c r="I6">
-        <v>2.624180447787587</v>
+        <v>2.535974515033848</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.81820478450182</v>
+        <v>12.29315920587564</v>
       </c>
       <c r="L6">
-        <v>6.916015858738817</v>
+        <v>10.98951514865808</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.284048080653495</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.984669614797082</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -684,51 +714,57 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.9282985534692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.40157969073794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.63126197440761</v>
+        <v>21.71505158002485</v>
       </c>
       <c r="C7">
-        <v>16.95367205505566</v>
+        <v>17.14322362586883</v>
       </c>
       <c r="D7">
-        <v>7.752549000735315</v>
+        <v>7.926246770143491</v>
       </c>
       <c r="E7">
-        <v>11.50641159905502</v>
+        <v>11.68298088686346</v>
       </c>
       <c r="F7">
-        <v>21.66136640369445</v>
+        <v>21.0953771688144</v>
       </c>
       <c r="G7">
-        <v>2.095974100658078</v>
+        <v>3.279317829341216</v>
       </c>
       <c r="H7">
-        <v>1.678429384208767</v>
+        <v>1.591821222961287</v>
       </c>
       <c r="I7">
-        <v>2.573189024457478</v>
+        <v>2.577265939389271</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.72546200279301</v>
+        <v>12.19361602581709</v>
       </c>
       <c r="L7">
-        <v>6.980581345572825</v>
+        <v>10.90119299795594</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.198358186153605</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.042904498049769</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -737,51 +773,57 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.93662803357057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.37518383338785</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.73308236350681</v>
+        <v>23.79706445675605</v>
       </c>
       <c r="C8">
-        <v>18.5451695745622</v>
+        <v>18.79067068071683</v>
       </c>
       <c r="D8">
-        <v>8.28401424975528</v>
+        <v>8.478462787961243</v>
       </c>
       <c r="E8">
-        <v>12.26346294799279</v>
+        <v>12.42261852362604</v>
       </c>
       <c r="F8">
-        <v>22.24483243167996</v>
+        <v>21.55723258770254</v>
       </c>
       <c r="G8">
-        <v>2.090248698369683</v>
+        <v>2.90150716505336</v>
       </c>
       <c r="H8">
-        <v>1.758939316548732</v>
+        <v>1.869656690948287</v>
       </c>
       <c r="I8">
-        <v>2.607859549297029</v>
+        <v>2.754288427243246</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.34345510671452</v>
+        <v>11.81486905510203</v>
       </c>
       <c r="L8">
-        <v>7.257899771664921</v>
+        <v>10.58450005872901</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>6.873889230532311</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.297819045064015</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -790,51 +832,57 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.0164285739221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.38653335790736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.38365056318732</v>
+        <v>27.41410017846541</v>
       </c>
       <c r="C9">
-        <v>21.29148299522752</v>
+        <v>21.70809787403526</v>
       </c>
       <c r="D9">
-        <v>9.234293691877241</v>
+        <v>9.425040004544009</v>
       </c>
       <c r="E9">
-        <v>13.62459653783499</v>
+        <v>13.7402062507083</v>
       </c>
       <c r="F9">
-        <v>23.48279938982898</v>
+        <v>22.732812914794</v>
       </c>
       <c r="G9">
-        <v>2.079663391583563</v>
+        <v>1.9246241581873</v>
       </c>
       <c r="H9">
-        <v>2.333276944659423</v>
+        <v>2.38235721378275</v>
       </c>
       <c r="I9">
-        <v>3.016262562826063</v>
+        <v>3.086365973369361</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.66790950905699</v>
+        <v>11.18762069266145</v>
       </c>
       <c r="L9">
-        <v>7.770316800249276</v>
+        <v>10.0959918490054</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.439593087362063</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.777018212611514</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -843,51 +891,57 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.29067655513534</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.6504109535638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.77953167328721</v>
+        <v>29.78378630511254</v>
       </c>
       <c r="C10">
-        <v>23.11168765488239</v>
+        <v>23.51916106762685</v>
       </c>
       <c r="D10">
-        <v>9.797769576674561</v>
+        <v>10.05434936034182</v>
       </c>
       <c r="E10">
-        <v>14.32605792738245</v>
+        <v>14.43988069941375</v>
       </c>
       <c r="F10">
-        <v>24.19270371096458</v>
+        <v>23.09053240432202</v>
       </c>
       <c r="G10">
-        <v>2.072421013833108</v>
+        <v>3.859294200678759</v>
       </c>
       <c r="H10">
-        <v>2.716271655128256</v>
+        <v>2.715467032151943</v>
       </c>
       <c r="I10">
-        <v>3.301795311230483</v>
+        <v>3.313714197198515</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.14403969210613</v>
+        <v>10.60807092488044</v>
       </c>
       <c r="L10">
-        <v>8.015851512172835</v>
+        <v>9.682295455424907</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.097067835876189</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.991140557387237</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -896,51 +950,57 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.42320625093606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.52786589167637</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.78981893922233</v>
+        <v>30.78183377032098</v>
       </c>
       <c r="C11">
-        <v>23.68668306640316</v>
+        <v>23.79332753617231</v>
       </c>
       <c r="D11">
-        <v>9.308009756553147</v>
+        <v>9.685309142874965</v>
       </c>
       <c r="E11">
-        <v>12.7456077558154</v>
+        <v>12.89215091918</v>
       </c>
       <c r="F11">
-        <v>22.72842534921229</v>
+        <v>21.08157297957233</v>
       </c>
       <c r="G11">
-        <v>2.070436985453233</v>
+        <v>7.779861446409693</v>
       </c>
       <c r="H11">
-        <v>3.419178274688923</v>
+        <v>3.398793765017045</v>
       </c>
       <c r="I11">
-        <v>3.393367641717182</v>
+        <v>3.380165678797688</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.49448957184688</v>
+        <v>9.951338814172138</v>
       </c>
       <c r="L11">
-        <v>7.23920907639023</v>
+        <v>9.295812580292145</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.505139676996693</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.193588368496131</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -949,51 +1009,57 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.53583916213064</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.23186417741273</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.15704712724257</v>
+        <v>31.14581878192418</v>
       </c>
       <c r="C12">
-        <v>23.74608669150772</v>
+        <v>23.66442883142255</v>
       </c>
       <c r="D12">
-        <v>8.763403234844995</v>
+        <v>9.185269366804889</v>
       </c>
       <c r="E12">
-        <v>11.3078347291146</v>
+        <v>11.46036393266564</v>
       </c>
       <c r="F12">
-        <v>21.37102336816992</v>
+        <v>19.53470301117421</v>
       </c>
       <c r="G12">
-        <v>2.07014541193712</v>
+        <v>9.65507817782731</v>
       </c>
       <c r="H12">
-        <v>4.527228633808303</v>
+        <v>4.508196117083167</v>
       </c>
       <c r="I12">
-        <v>3.410182800398406</v>
+        <v>3.389678369973602</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.12226601636292</v>
+        <v>9.670541542471151</v>
       </c>
       <c r="L12">
-        <v>6.619061607838194</v>
+        <v>9.161427186247256</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.197620335437991</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.570288129933803</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -1002,51 +1068,57 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.78668415824192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.35431971709237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.06408440274217</v>
+        <v>31.05669496650704</v>
       </c>
       <c r="C13">
-        <v>23.46713955804145</v>
+        <v>23.30877590300967</v>
       </c>
       <c r="D13">
-        <v>8.140767015341137</v>
+        <v>8.523787513283466</v>
       </c>
       <c r="E13">
-        <v>9.891970774717617</v>
+        <v>10.02227624489074</v>
       </c>
       <c r="F13">
-        <v>19.95129486317367</v>
+        <v>18.30287712921266</v>
       </c>
       <c r="G13">
-        <v>2.071162476792953</v>
+        <v>9.21402819826498</v>
       </c>
       <c r="H13">
-        <v>5.752944438785636</v>
+        <v>5.741982431702892</v>
       </c>
       <c r="I13">
-        <v>3.374219114134463</v>
+        <v>3.362023982252718</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.923610092221088</v>
+        <v>9.610042824581917</v>
       </c>
       <c r="L13">
-        <v>6.099545225284973</v>
+        <v>9.141380191185092</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.091041361207244</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.063283448799707</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1055,51 +1127,57 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.05925363685539</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.78779356935793</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.7896278265874</v>
+        <v>30.78792663390289</v>
       </c>
       <c r="C14">
-        <v>23.12510915282746</v>
+        <v>22.9599590026964</v>
       </c>
       <c r="D14">
-        <v>7.665948393555647</v>
+        <v>7.986469127625393</v>
       </c>
       <c r="E14">
-        <v>8.936568418901148</v>
+        <v>9.042285014617992</v>
       </c>
       <c r="F14">
-        <v>18.9209664252322</v>
+        <v>17.5605525345665</v>
       </c>
       <c r="G14">
-        <v>2.072461841169368</v>
+        <v>7.877314562250431</v>
       </c>
       <c r="H14">
-        <v>6.652877649035978</v>
+        <v>6.64809665010187</v>
       </c>
       <c r="I14">
-        <v>3.326352060041985</v>
+        <v>3.327031353027534</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.871152022210024</v>
+        <v>9.646810045446214</v>
       </c>
       <c r="L14">
-        <v>5.812983731638244</v>
+        <v>9.159480540654007</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.099876138371532</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.791143020447111</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1108,51 +1186,57 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.55855593721104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.51391496927173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.62304372768086</v>
+        <v>30.62417970340975</v>
       </c>
       <c r="C15">
-        <v>22.98182178441472</v>
+        <v>22.83499375564604</v>
       </c>
       <c r="D15">
-        <v>7.535253388332658</v>
+        <v>7.825970965483399</v>
       </c>
       <c r="E15">
-        <v>8.703859197579614</v>
+        <v>8.801467007483177</v>
       </c>
       <c r="F15">
-        <v>18.64899274031393</v>
+        <v>17.42362545790637</v>
       </c>
       <c r="G15">
-        <v>2.073078131016122</v>
+        <v>7.110171083952385</v>
       </c>
       <c r="H15">
-        <v>6.857465537169433</v>
+        <v>6.85500757465128</v>
       </c>
       <c r="I15">
-        <v>3.304321398816365</v>
+        <v>3.311847692191325</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.887719707540017</v>
+        <v>9.683129320719331</v>
       </c>
       <c r="L15">
-        <v>5.753159409550154</v>
+        <v>9.173536778746358</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.130648718745442</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.736994923595669</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1161,51 +1245,57 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.4355409717177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.49315716967244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.66120759259594</v>
+        <v>29.67595835823418</v>
       </c>
       <c r="C16">
-        <v>22.29673011133682</v>
+        <v>22.32072446835857</v>
       </c>
       <c r="D16">
-        <v>7.392962028266759</v>
+        <v>7.565373942941639</v>
       </c>
       <c r="E16">
-        <v>8.621913643058997</v>
+        <v>8.704448896535375</v>
       </c>
       <c r="F16">
-        <v>18.57826894049406</v>
+        <v>17.88408760208062</v>
       </c>
       <c r="G16">
-        <v>2.075968163788707</v>
+        <v>3.488498405653727</v>
       </c>
       <c r="H16">
-        <v>6.578310815645429</v>
+        <v>6.585842099576547</v>
       </c>
       <c r="I16">
-        <v>3.191848075123645</v>
+        <v>3.230575672642713</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.15391682928601</v>
+        <v>9.950382127586863</v>
       </c>
       <c r="L16">
-        <v>5.737764059862593</v>
+        <v>9.283541864291562</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.392421144704606</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.741889295849923</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1214,51 +1304,57 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.50745577219744</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.95135544846426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.05934317573429</v>
+        <v>29.0811366039074</v>
       </c>
       <c r="C17">
-        <v>21.95262538836007</v>
+        <v>22.08601256246474</v>
       </c>
       <c r="D17">
-        <v>7.544848632285615</v>
+        <v>7.675009002777442</v>
       </c>
       <c r="E17">
-        <v>9.063270742980803</v>
+        <v>9.145207498421476</v>
       </c>
       <c r="F17">
-        <v>19.07767912846882</v>
+        <v>18.57650729887882</v>
       </c>
       <c r="G17">
-        <v>2.077504390469862</v>
+        <v>1.995144101173771</v>
       </c>
       <c r="H17">
-        <v>5.835035376299608</v>
+        <v>5.848761383342474</v>
       </c>
       <c r="I17">
-        <v>3.13101461579306</v>
+        <v>3.185989570067352</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.37884682824671</v>
+        <v>10.15673840957183</v>
       </c>
       <c r="L17">
-        <v>5.863589835113583</v>
+        <v>9.390015493479224</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.585216680223567</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.876281652721089</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1267,51 +1363,57 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.82683563150533</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.40659529578203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.71371157198574</v>
+        <v>28.73824119641481</v>
       </c>
       <c r="C18">
-        <v>21.84202151110926</v>
+        <v>22.08266414434902</v>
       </c>
       <c r="D18">
-        <v>7.965651003536278</v>
+        <v>8.08874317951526</v>
       </c>
       <c r="E18">
-        <v>10.08407590521968</v>
+        <v>10.16766312583449</v>
       </c>
       <c r="F18">
-        <v>20.14901053509341</v>
+        <v>19.68097658945874</v>
       </c>
       <c r="G18">
-        <v>2.077972398188402</v>
+        <v>1.468868334292866</v>
       </c>
       <c r="H18">
-        <v>4.654052344996737</v>
+        <v>4.673736263763685</v>
       </c>
       <c r="I18">
-        <v>3.105964398014879</v>
+        <v>3.166154993249511</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.62647497446273</v>
+        <v>10.36723492321005</v>
       </c>
       <c r="L18">
-        <v>6.206363899214128</v>
+        <v>9.519998282044456</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.776359335573571</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.220333793009337</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1320,51 +1422,57 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.41447246379397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.01280699283574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.60502610445675</v>
+        <v>28.62876186913576</v>
       </c>
       <c r="C19">
-        <v>21.99577160529637</v>
+        <v>22.34588324315927</v>
       </c>
       <c r="D19">
-        <v>8.581920844291577</v>
+        <v>8.716397770281043</v>
       </c>
       <c r="E19">
-        <v>11.57192632241695</v>
+        <v>11.65761549893449</v>
       </c>
       <c r="F19">
-        <v>21.55362967809934</v>
+        <v>21.03167541910276</v>
       </c>
       <c r="G19">
-        <v>2.077487133804687</v>
+        <v>1.41675385384221</v>
       </c>
       <c r="H19">
-        <v>3.383745241610411</v>
+        <v>3.410342967313822</v>
       </c>
       <c r="I19">
-        <v>3.121744467990302</v>
+        <v>3.180247938404573</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.89240651515319</v>
+        <v>10.57956125092237</v>
       </c>
       <c r="L19">
-        <v>6.793613769192673</v>
+        <v>9.663700847243369</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.969828810742427</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.803250912006721</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1373,51 +1481,57 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.14248204837034</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.69609033275081</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.16819345642602</v>
+        <v>29.18110031807588</v>
       </c>
       <c r="C20">
-        <v>22.75247112935808</v>
+        <v>23.2222988471051</v>
       </c>
       <c r="D20">
-        <v>9.669781379185212</v>
+        <v>9.866124385200258</v>
       </c>
       <c r="E20">
-        <v>14.1437983929266</v>
+        <v>14.24155778683172</v>
       </c>
       <c r="F20">
-        <v>23.90390353791045</v>
+        <v>23.08467626284335</v>
       </c>
       <c r="G20">
-        <v>2.074344047890868</v>
+        <v>2.353855979133599</v>
       </c>
       <c r="H20">
-        <v>2.61385697732999</v>
+        <v>2.630541196501929</v>
       </c>
       <c r="I20">
-        <v>3.236387567949367</v>
+        <v>3.270320504584582</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.22532730648036</v>
+        <v>10.77034370894741</v>
       </c>
       <c r="L20">
-        <v>7.944802179631706</v>
+        <v>9.793300642812191</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.193553460041469</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.934525990991219</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1426,51 +1540,57 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.3065088642366</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.62993734630448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.92182006034416</v>
+        <v>30.90587605585286</v>
       </c>
       <c r="C21">
-        <v>24.11081285831096</v>
+        <v>24.26591972595067</v>
       </c>
       <c r="D21">
-        <v>10.21535040955106</v>
+        <v>10.68431667196308</v>
       </c>
       <c r="E21">
-        <v>15.00396900907309</v>
+        <v>15.18800858619966</v>
       </c>
       <c r="F21">
-        <v>24.78925455964656</v>
+        <v>22.71674231656185</v>
       </c>
       <c r="G21">
-        <v>2.068653152119534</v>
+        <v>9.46471027589506</v>
       </c>
       <c r="H21">
-        <v>2.925728431190259</v>
+        <v>2.883059258433505</v>
       </c>
       <c r="I21">
-        <v>3.457785905366749</v>
+        <v>3.428203716304326</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.91840885083696</v>
+        <v>10.11972004609783</v>
       </c>
       <c r="L21">
-        <v>8.295629067299785</v>
+        <v>9.385874021212343</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.720192152687988</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.229822433697612</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1479,51 +1599,57 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15.60723676044101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.95213180400429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.01676875460094</v>
+        <v>31.98266238731144</v>
       </c>
       <c r="C22">
-        <v>24.9089290844982</v>
+        <v>24.84031474608814</v>
       </c>
       <c r="D22">
-        <v>10.50908390606836</v>
+        <v>11.16716270510028</v>
       </c>
       <c r="E22">
-        <v>15.43272883809987</v>
+        <v>15.6803402297147</v>
       </c>
       <c r="F22">
-        <v>25.30195135496807</v>
+        <v>22.3552511576222</v>
       </c>
       <c r="G22">
-        <v>2.065055675477564</v>
+        <v>14.53630894198084</v>
       </c>
       <c r="H22">
-        <v>3.117763547364078</v>
+        <v>3.038627318370827</v>
       </c>
       <c r="I22">
-        <v>3.59490622544661</v>
+        <v>3.52482763186363</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.72269727402867</v>
+        <v>9.698697502853932</v>
       </c>
       <c r="L22">
-        <v>8.465760169275798</v>
+        <v>9.160697121771708</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.389825395356981</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.364037405269038</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1532,51 +1658,57 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15.7891533545961</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.44278808513739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.43734754134039</v>
+        <v>31.41374301514763</v>
       </c>
       <c r="C23">
-        <v>24.44759068243803</v>
+        <v>24.54374697584527</v>
       </c>
       <c r="D23">
-        <v>10.34569454205074</v>
+        <v>10.87294859608869</v>
       </c>
       <c r="E23">
-        <v>15.20216509331039</v>
+        <v>15.40356943540468</v>
       </c>
       <c r="F23">
-        <v>25.06165780092775</v>
+        <v>22.7115433208164</v>
       </c>
       <c r="G23">
-        <v>2.066956905285756</v>
+        <v>11.03215875550306</v>
       </c>
       <c r="H23">
-        <v>3.016132405411927</v>
+        <v>2.95839263128196</v>
       </c>
       <c r="I23">
-        <v>3.518503618361033</v>
+        <v>3.470498067519001</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.8469052023846</v>
+        <v>9.968036575235583</v>
       </c>
       <c r="L23">
-        <v>8.376336459681591</v>
+        <v>9.298675972324158</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.621888416456447</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.297563185279987</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1585,51 +1717,57 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15.7184295913956</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.84316699963076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.14108680746243</v>
+        <v>29.15401924367492</v>
       </c>
       <c r="C24">
-        <v>22.69210041934354</v>
+        <v>23.17753066585761</v>
       </c>
       <c r="D24">
-        <v>9.718426512573313</v>
+        <v>9.914857513863618</v>
       </c>
       <c r="E24">
-        <v>14.30449735631532</v>
+        <v>14.40234376289057</v>
       </c>
       <c r="F24">
-        <v>24.10419586788486</v>
+        <v>23.28387990339277</v>
       </c>
       <c r="G24">
-        <v>2.074295980015021</v>
+        <v>2.310131067813765</v>
       </c>
       <c r="H24">
-        <v>2.622791472031431</v>
+        <v>2.639485394089948</v>
       </c>
       <c r="I24">
-        <v>3.230663706239705</v>
+        <v>3.262754671844271</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.29867657713978</v>
+        <v>10.83228661699374</v>
       </c>
       <c r="L24">
-        <v>8.027543513900179</v>
+        <v>9.833823290632813</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.250487141639334</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.017073779563985</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1638,51 +1776,57 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.42921446429336</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.75078479489665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.44552556463615</v>
+        <v>26.48560155973941</v>
       </c>
       <c r="C25">
-        <v>20.64851732194921</v>
+        <v>21.0469750725128</v>
       </c>
       <c r="D25">
-        <v>8.998978436048645</v>
+        <v>9.171621318477621</v>
       </c>
       <c r="E25">
-        <v>13.27467554039481</v>
+        <v>13.39416671902305</v>
       </c>
       <c r="F25">
-        <v>23.08899965933346</v>
+        <v>22.43891914958085</v>
       </c>
       <c r="G25">
-        <v>2.082482809526376</v>
+        <v>1.798426829698907</v>
       </c>
       <c r="H25">
-        <v>2.181244879525137</v>
+        <v>2.248707929044572</v>
       </c>
       <c r="I25">
-        <v>2.912659318042932</v>
+        <v>3.006124529311931</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.81552890344021</v>
+        <v>11.3517329374177</v>
       </c>
       <c r="L25">
-        <v>7.633742194246818</v>
+        <v>10.22156851267827</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>6.535960958977252</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.651800473550948</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.16444687256881</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.59246738329482</v>
       </c>
     </row>
   </sheetData>
